--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stjus\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fmh-android\fmh-android\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="182">
   <si>
     <t>ID</t>
   </si>
@@ -80,12 +80,6 @@
     <t>Приложение установлено и запущено</t>
   </si>
   <si>
-    <t>Разворачивание и сворачивание новостной ленты в главном меню</t>
-  </si>
-  <si>
-    <t>2. Отображается новостное оглавление</t>
-  </si>
-  <si>
     <t>Нужна ли автоматизация</t>
   </si>
   <si>
@@ -185,15 +179,6 @@
     <t>2. Нажать на стрелочку вверх справа от надписи Заявки</t>
   </si>
   <si>
-    <t>1. Нажать на стрелочку вниз справа от надписи Новости</t>
-  </si>
-  <si>
-    <t>2. Нажать на стрелочку вверх справа от надписи Новости</t>
-  </si>
-  <si>
-    <t>1. Новостная лента открывается</t>
-  </si>
-  <si>
     <t>1. Отображается список заявок</t>
   </si>
   <si>
@@ -561,6 +546,30 @@
   </si>
   <si>
     <t>5. Оповещение Заполните пустые поля</t>
+  </si>
+  <si>
+    <t>Развернуть и свернуть новость</t>
+  </si>
+  <si>
+    <t>1. Нажать на стрелочку вниз справа от Новости</t>
+  </si>
+  <si>
+    <t>Развернуть и свернуть новостную ленту</t>
+  </si>
+  <si>
+    <t>1. Нажать на стрелочку вниз справа от Новостной ленты</t>
+  </si>
+  <si>
+    <t>2. Нажать на стрелочку вверх справа от Новостной ленты</t>
+  </si>
+  <si>
+    <t>1. Отображается новостное оглавление</t>
+  </si>
+  <si>
+    <t>2. Новостная лента открывается</t>
+  </si>
+  <si>
+    <t>1. Отображается описание новости</t>
   </si>
 </sst>
 </file>
@@ -755,7 +764,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,6 +868,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1142,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1195,10 +1234,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
@@ -1210,11 +1249,11 @@
         <v>9</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1237,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>14</v>
@@ -1249,14 +1288,14 @@
         <v>17</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1266,7 +1305,7 @@
       <c r="D5" s="25"/>
       <c r="E5" s="16"/>
       <c r="F5" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>16</v>
@@ -1281,10 +1320,10 @@
       <c r="D6" s="26"/>
       <c r="E6" s="17"/>
       <c r="F6" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="32"/>
@@ -1294,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="18" t="s">
@@ -1304,14 +1343,14 @@
         <v>17</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1321,10 +1360,10 @@
       <c r="D8" s="19"/>
       <c r="E8" s="16"/>
       <c r="F8" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="16"/>
@@ -1336,7 +1375,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="16"/>
       <c r="F9" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>12</v>
@@ -1351,10 +1390,10 @@
       <c r="D10" s="20"/>
       <c r="E10" s="17"/>
       <c r="F10" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="17"/>
@@ -1364,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="18" t="s">
@@ -1374,14 +1413,14 @@
         <v>17</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1391,7 +1430,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="16"/>
       <c r="F12" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>16</v>
@@ -1406,7 +1445,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="16"/>
       <c r="F13" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>12</v>
@@ -1421,10 +1460,10 @@
       <c r="D14" s="20"/>
       <c r="E14" s="17"/>
       <c r="F14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="17"/>
@@ -1434,7 +1473,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="18" t="s">
@@ -1444,14 +1483,14 @@
         <v>17</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1461,7 +1500,7 @@
       <c r="D16" s="19"/>
       <c r="E16" s="16"/>
       <c r="F16" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>16</v>
@@ -1476,7 +1515,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="16"/>
       <c r="F17" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>12</v>
@@ -1491,10 +1530,10 @@
       <c r="D18" s="20"/>
       <c r="E18" s="17"/>
       <c r="F18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="17"/>
@@ -1504,7 +1543,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="24" t="s">
@@ -1514,14 +1553,14 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1531,7 +1570,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="16"/>
       <c r="F20" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>16</v>
@@ -1546,7 +1585,7 @@
       <c r="D21" s="25"/>
       <c r="E21" s="16"/>
       <c r="F21" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>12</v>
@@ -1561,10 +1600,10 @@
       <c r="D22" s="26"/>
       <c r="E22" s="17"/>
       <c r="F22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="17"/>
@@ -1574,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="24" t="s">
@@ -1584,14 +1623,14 @@
         <v>17</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1601,7 +1640,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="16"/>
       <c r="F24" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>16</v>
@@ -1616,7 +1655,7 @@
       <c r="D25" s="25"/>
       <c r="E25" s="16"/>
       <c r="F25" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>12</v>
@@ -1631,10 +1670,10 @@
       <c r="D26" s="26"/>
       <c r="E26" s="17"/>
       <c r="F26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="17"/>
@@ -1644,7 +1683,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="24" t="s">
@@ -1654,14 +1693,14 @@
         <v>17</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1671,7 +1710,7 @@
       <c r="D28" s="25"/>
       <c r="E28" s="16"/>
       <c r="F28" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>16</v>
@@ -1686,10 +1725,10 @@
       <c r="D29" s="25"/>
       <c r="E29" s="16"/>
       <c r="F29" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="16"/>
@@ -1701,10 +1740,10 @@
       <c r="D30" s="26"/>
       <c r="E30" s="17"/>
       <c r="F30" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="17"/>
@@ -1714,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="24" t="s">
@@ -1724,14 +1763,14 @@
         <v>17</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1741,7 +1780,7 @@
       <c r="D32" s="25"/>
       <c r="E32" s="16"/>
       <c r="F32" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>16</v>
@@ -1756,7 +1795,7 @@
       <c r="D33" s="25"/>
       <c r="E33" s="16"/>
       <c r="F33" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>12</v>
@@ -1771,10 +1810,10 @@
       <c r="D34" s="26"/>
       <c r="E34" s="17"/>
       <c r="F34" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="17"/>
@@ -1784,7 +1823,7 @@
         <v>10</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="24" t="s">
@@ -1794,14 +1833,14 @@
         <v>17</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1811,7 +1850,7 @@
       <c r="D36" s="25"/>
       <c r="E36" s="16"/>
       <c r="F36" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>16</v>
@@ -1826,7 +1865,7 @@
       <c r="D37" s="25"/>
       <c r="E37" s="16"/>
       <c r="F37" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>12</v>
@@ -1841,10 +1880,10 @@
       <c r="D38" s="26"/>
       <c r="E38" s="17"/>
       <c r="F38" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="17"/>
@@ -1854,7 +1893,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="24" t="s">
@@ -1864,14 +1903,14 @@
         <v>17</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -1883,7 +1922,7 @@
       <c r="D40" s="25"/>
       <c r="E40" s="16"/>
       <c r="F40" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>16</v>
@@ -1900,7 +1939,7 @@
       <c r="D41" s="25"/>
       <c r="E41" s="16"/>
       <c r="F41" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>12</v>
@@ -1917,10 +1956,10 @@
       <c r="D42" s="26"/>
       <c r="E42" s="17"/>
       <c r="F42" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="17"/>
@@ -1932,7 +1971,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="24" t="s">
@@ -1942,14 +1981,14 @@
         <v>17</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -1961,7 +2000,7 @@
       <c r="D44" s="25"/>
       <c r="E44" s="16"/>
       <c r="F44" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>16</v>
@@ -1978,7 +2017,7 @@
       <c r="D45" s="25"/>
       <c r="E45" s="16"/>
       <c r="F45" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>12</v>
@@ -1995,10 +2034,10 @@
       <c r="D46" s="26"/>
       <c r="E46" s="17"/>
       <c r="F46" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="17"/>
@@ -2010,7 +2049,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="24" t="s">
@@ -2020,14 +2059,14 @@
         <v>17</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2037,10 +2076,10 @@
       <c r="D48" s="26"/>
       <c r="E48" s="17"/>
       <c r="F48" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="16"/>
@@ -2050,7 +2089,7 @@
         <v>14</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="24" t="s">
@@ -2060,10 +2099,10 @@
         <v>17</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="16"/>
@@ -2075,10 +2114,10 @@
       <c r="D50" s="26"/>
       <c r="E50" s="17"/>
       <c r="F50" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="17"/>
@@ -2088,24 +2127,24 @@
         <v>15</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2115,111 +2154,113 @@
       <c r="D52" s="26"/>
       <c r="E52" s="17"/>
       <c r="F52" s="11" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>16</v>
       </c>
-      <c r="B53" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="21"/>
+      <c r="B53" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="36"/>
       <c r="D53" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>56</v>
+      <c r="F53" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="H53" s="10"/>
-      <c r="I53" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I53" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="23"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="26"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="E54" s="39"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="10"/>
-      <c r="I54" s="32"/>
-    </row>
-    <row r="55" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>17</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="24" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>58</v>
+      <c r="F55" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H55" s="10"/>
-      <c r="I55" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="10" t="s">
-        <v>24</v>
+      <c r="I55" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H56" s="10"/>
-      <c r="I56" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="I56" s="32"/>
     </row>
     <row r="57" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="16"/>
+      <c r="A57" s="24">
+        <v>18</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F57" s="10" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H57" s="10"/>
       <c r="I57" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2229,14 +2270,14 @@
       <c r="D58" s="25"/>
       <c r="E58" s="16"/>
       <c r="F58" s="10" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2245,58 +2286,62 @@
       <c r="C59" s="22"/>
       <c r="D59" s="25"/>
       <c r="E59" s="16"/>
-      <c r="F59" s="11" t="s">
-        <v>138</v>
+      <c r="F59" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H59" s="10"/>
-      <c r="I59" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25"/>
       <c r="B60" s="16"/>
       <c r="C60" s="22"/>
       <c r="D60" s="25"/>
       <c r="E60" s="16"/>
-      <c r="F60" s="11" t="s">
-        <v>63</v>
+      <c r="F60" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H60" s="10"/>
-      <c r="I60" s="31"/>
-    </row>
-    <row r="61" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I60" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
       <c r="B61" s="16"/>
       <c r="C61" s="22"/>
       <c r="D61" s="25"/>
       <c r="E61" s="16"/>
       <c r="F61" s="11" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H61" s="10"/>
-      <c r="I61" s="31"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="16"/>
       <c r="C62" s="22"/>
       <c r="D62" s="25"/>
       <c r="E62" s="16"/>
       <c r="F62" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="31"/>
@@ -2308,10 +2353,10 @@
       <c r="D63" s="25"/>
       <c r="E63" s="16"/>
       <c r="F63" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="31"/>
@@ -2323,7 +2368,7 @@
       <c r="D64" s="25"/>
       <c r="E64" s="16"/>
       <c r="F64" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>35</v>
@@ -2338,95 +2383,95 @@
       <c r="D65" s="25"/>
       <c r="E65" s="16"/>
       <c r="F65" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H65" s="10"/>
       <c r="I65" s="31"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="26"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="17"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="16"/>
       <c r="F66" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="31"/>
+    </row>
+    <row r="67" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="25"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="31"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="26"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="10"/>
+      <c r="I68" s="32"/>
+    </row>
+    <row r="69" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="33">
+        <v>19</v>
+      </c>
+      <c r="B69" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G66" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H66" s="10"/>
-      <c r="I66" s="32"/>
-    </row>
-    <row r="67" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33">
-        <v>18</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="24" t="s">
+      <c r="C69" s="21"/>
+      <c r="D69" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E69" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="34"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="31"/>
-    </row>
-    <row r="69" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="34"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="16"/>
       <c r="F69" s="11" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H69" s="10"/>
-      <c r="I69" s="31"/>
-    </row>
-    <row r="70" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I69" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="34"/>
       <c r="B70" s="31"/>
       <c r="C70" s="22"/>
       <c r="D70" s="25"/>
       <c r="E70" s="16"/>
       <c r="F70" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="H70" s="10"/>
       <c r="I70" s="31"/>
@@ -2438,333 +2483,333 @@
       <c r="D71" s="25"/>
       <c r="E71" s="16"/>
       <c r="F71" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H71" s="10"/>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="34"/>
       <c r="B72" s="31"/>
       <c r="C72" s="22"/>
       <c r="D72" s="25"/>
       <c r="E72" s="16"/>
       <c r="F72" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H72" s="10"/>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="34"/>
       <c r="B73" s="31"/>
       <c r="C73" s="22"/>
       <c r="D73" s="25"/>
       <c r="E73" s="16"/>
       <c r="F73" s="11" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H73" s="10"/>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="35"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="17"/>
+    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="34"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="16"/>
       <c r="F74" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H74" s="10"/>
-      <c r="I74" s="32"/>
+      <c r="I74" s="31"/>
     </row>
     <row r="75" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="18">
-        <v>19</v>
-      </c>
-      <c r="B75" s="27" t="s">
+      <c r="A75" s="34"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H75" s="10"/>
+      <c r="I75" s="31"/>
+    </row>
+    <row r="76" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="35"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="10"/>
+      <c r="I76" s="32"/>
+    </row>
+    <row r="77" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="18">
+        <v>20</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H77" s="10"/>
+      <c r="I77" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="19"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H78" s="10"/>
+      <c r="I78" s="16"/>
+    </row>
+    <row r="79" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="20"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="24" t="s">
+      <c r="G79" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H79" s="10"/>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="18">
+        <v>21</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E80" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H75" s="10"/>
-      <c r="I75" s="15" t="s">
+      <c r="F80" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H80" s="10"/>
+      <c r="I80" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="19"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H81" s="10"/>
+      <c r="I81" s="16"/>
+    </row>
+    <row r="82" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="20"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H82" s="10"/>
+      <c r="I82" s="17"/>
+    </row>
+    <row r="83" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="18">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="H76" s="10"/>
-      <c r="I76" s="16"/>
-    </row>
-    <row r="77" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="20"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G77" s="10" t="s">
+      <c r="B83" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H77" s="10"/>
-      <c r="I77" s="17"/>
-    </row>
-    <row r="78" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="18">
+      <c r="C83" s="21"/>
+      <c r="D83" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H83" s="10"/>
+      <c r="I83" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B78" s="15" t="s">
+    </row>
+    <row r="84" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="19"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="24" t="s">
+      <c r="G84" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H84" s="10"/>
+      <c r="I84" s="16"/>
+    </row>
+    <row r="85" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="20"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H85" s="10"/>
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="18">
+        <v>23</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E86" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F78" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H78" s="10"/>
-      <c r="I78" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="19"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="H79" s="10"/>
-      <c r="I79" s="16"/>
-    </row>
-    <row r="80" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="20"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H80" s="10"/>
-      <c r="I80" s="17"/>
-    </row>
-    <row r="81" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="18">
-        <v>21</v>
-      </c>
-      <c r="B81" s="15" t="s">
+      <c r="F86" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H86" s="10"/>
+      <c r="I86" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="24" t="s">
+      <c r="G87" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H87" s="10"/>
+      <c r="I87" s="16"/>
+    </row>
+    <row r="88" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="20"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H88" s="10"/>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="18">
+        <v>24</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E89" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H81" s="10"/>
-      <c r="I81" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="19"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H82" s="10"/>
-      <c r="I82" s="16"/>
-    </row>
-    <row r="83" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="20"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H83" s="10"/>
-      <c r="I83" s="17"/>
-    </row>
-    <row r="84" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="18">
-        <v>22</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H84" s="10"/>
-      <c r="I84" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H85" s="10"/>
-      <c r="I85" s="16"/>
-    </row>
-    <row r="86" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="20"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H86" s="10"/>
-      <c r="I86" s="17"/>
-    </row>
-    <row r="87" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="18">
-        <v>23</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C87" s="21"/>
-      <c r="D87" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H87" s="10"/>
-      <c r="I87" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="19"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H88" s="10"/>
-      <c r="I88" s="16"/>
-    </row>
-    <row r="89" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="19"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="16"/>
       <c r="F89" s="10" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="H89" s="10"/>
-      <c r="I89" s="16"/>
+      <c r="I89" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
@@ -2773,10 +2818,10 @@
       <c r="D90" s="25"/>
       <c r="E90" s="16"/>
       <c r="F90" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H90" s="10"/>
       <c r="I90" s="16"/>
@@ -2788,10 +2833,10 @@
       <c r="D91" s="25"/>
       <c r="E91" s="16"/>
       <c r="F91" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="H91" s="10"/>
       <c r="I91" s="16"/>
@@ -2803,98 +2848,98 @@
       <c r="D92" s="25"/>
       <c r="E92" s="16"/>
       <c r="F92" s="10" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="H92" s="10"/>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
       <c r="B93" s="28"/>
       <c r="C93" s="22"/>
       <c r="D93" s="25"/>
       <c r="E93" s="16"/>
       <c r="F93" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H93" s="10"/>
       <c r="I93" s="16"/>
     </row>
     <row r="94" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="20"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="17"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="16"/>
       <c r="F94" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="H94" s="10"/>
-      <c r="I94" s="17"/>
+      <c r="I94" s="16"/>
     </row>
     <row r="95" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="18">
-        <v>24</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C95" s="21"/>
-      <c r="D95" s="24" t="s">
+      <c r="A95" s="19"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H95" s="10"/>
+      <c r="I95" s="16"/>
+    </row>
+    <row r="96" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="20"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H96" s="10"/>
+      <c r="I96" s="17"/>
+    </row>
+    <row r="97" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="18">
+        <v>25</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E97" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F95" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H95" s="10"/>
-      <c r="I95" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="19"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H96" s="10"/>
-      <c r="I96" s="16"/>
-    </row>
-    <row r="97" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="19"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="16"/>
       <c r="F97" s="10" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="H97" s="10"/>
-      <c r="I97" s="16"/>
+      <c r="I97" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
@@ -2903,10 +2948,10 @@
       <c r="D98" s="25"/>
       <c r="E98" s="16"/>
       <c r="F98" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H98" s="10"/>
       <c r="I98" s="16"/>
@@ -2918,10 +2963,10 @@
       <c r="D99" s="25"/>
       <c r="E99" s="16"/>
       <c r="F99" s="10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H99" s="10"/>
       <c r="I99" s="16"/>
@@ -2933,10 +2978,10 @@
       <c r="D100" s="25"/>
       <c r="E100" s="16"/>
       <c r="F100" s="10" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="16"/>
@@ -2948,83 +2993,83 @@
       <c r="D101" s="25"/>
       <c r="E101" s="16"/>
       <c r="F101" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H101" s="10"/>
       <c r="I101" s="16"/>
     </row>
     <row r="102" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="20"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="17"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="16"/>
       <c r="F102" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="H102" s="10"/>
-      <c r="I102" s="17"/>
+      <c r="I102" s="16"/>
     </row>
     <row r="103" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="18">
-        <v>25</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C103" s="21"/>
-      <c r="D103" s="24" t="s">
+      <c r="A103" s="19"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H103" s="10"/>
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="20"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H104" s="10"/>
+      <c r="I104" s="17"/>
+    </row>
+    <row r="105" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="18">
+        <v>26</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="21"/>
+      <c r="D105" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="15" t="s">
+      <c r="E105" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F103" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H103" s="10"/>
-      <c r="I103" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="19"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H104" s="10"/>
-      <c r="I104" s="16"/>
-    </row>
-    <row r="105" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="19"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="16"/>
       <c r="F105" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H105" s="10"/>
-      <c r="I105" s="17"/>
+      <c r="I105" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="106" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19"/>
@@ -3033,48 +3078,44 @@
       <c r="D106" s="25"/>
       <c r="E106" s="16"/>
       <c r="F106" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H106" s="10"/>
-      <c r="I106" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I106" s="16"/>
+    </row>
+    <row r="107" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19"/>
       <c r="B107" s="16"/>
       <c r="C107" s="22"/>
       <c r="D107" s="25"/>
       <c r="E107" s="16"/>
       <c r="F107" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="H107" s="10"/>
-      <c r="I107" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I107" s="17"/>
+    </row>
+    <row r="108" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19"/>
       <c r="B108" s="16"/>
       <c r="C108" s="22"/>
       <c r="D108" s="25"/>
       <c r="E108" s="16"/>
       <c r="F108" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="H108" s="10"/>
       <c r="I108" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3084,81 +3125,115 @@
       <c r="D109" s="25"/>
       <c r="E109" s="16"/>
       <c r="F109" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="H109" s="10"/>
       <c r="I109" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19"/>
       <c r="B110" s="16"/>
       <c r="C110" s="22"/>
       <c r="D110" s="25"/>
       <c r="E110" s="16"/>
       <c r="F110" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H110" s="10"/>
       <c r="I110" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="19"/>
       <c r="B111" s="16"/>
       <c r="C111" s="22"/>
       <c r="D111" s="25"/>
       <c r="E111" s="16"/>
       <c r="F111" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="H111" s="10"/>
-      <c r="I111" s="13" t="s">
-        <v>22</v>
+      <c r="I111" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="20"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="17"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="16"/>
       <c r="F112" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="19"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H113" s="10"/>
+      <c r="I113" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="20"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G114" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G112" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H112" s="10"/>
-      <c r="I112" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="14"/>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="14"/>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H114" s="10"/>
+      <c r="I114" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D115" s="14"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D116" s="14"/>
     </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D117" s="14"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D118" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="149">
+  <mergeCells count="157">
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="I4:I6"/>
@@ -3243,71 +3318,79 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I55:I56"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="E51:E52"/>
-    <mergeCell ref="I59:I66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="C67:C74"/>
-    <mergeCell ref="D67:D74"/>
-    <mergeCell ref="E67:E74"/>
-    <mergeCell ref="I67:I74"/>
-    <mergeCell ref="A55:A66"/>
-    <mergeCell ref="B55:B66"/>
-    <mergeCell ref="C55:C66"/>
-    <mergeCell ref="D55:D66"/>
-    <mergeCell ref="E55:E66"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="A103:A112"/>
-    <mergeCell ref="B103:B112"/>
-    <mergeCell ref="C103:C112"/>
-    <mergeCell ref="D103:D112"/>
-    <mergeCell ref="E103:E112"/>
-    <mergeCell ref="I87:I94"/>
-    <mergeCell ref="A95:A102"/>
-    <mergeCell ref="B95:B102"/>
-    <mergeCell ref="C95:C102"/>
-    <mergeCell ref="D95:D102"/>
-    <mergeCell ref="E95:E102"/>
-    <mergeCell ref="I95:I102"/>
-    <mergeCell ref="A87:A94"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="C87:C94"/>
-    <mergeCell ref="D87:D94"/>
-    <mergeCell ref="E87:E94"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I61:I68"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="C69:C76"/>
+    <mergeCell ref="D69:D76"/>
+    <mergeCell ref="E69:E76"/>
+    <mergeCell ref="I69:I76"/>
+    <mergeCell ref="A57:A68"/>
+    <mergeCell ref="B57:B68"/>
+    <mergeCell ref="C57:C68"/>
+    <mergeCell ref="D57:D68"/>
+    <mergeCell ref="E57:E68"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="A105:A114"/>
+    <mergeCell ref="B105:B114"/>
+    <mergeCell ref="C105:C114"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="E105:E114"/>
+    <mergeCell ref="I89:I96"/>
+    <mergeCell ref="A97:A104"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="D97:D104"/>
+    <mergeCell ref="E97:E104"/>
+    <mergeCell ref="I97:I104"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="D89:D96"/>
+    <mergeCell ref="E89:E96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
